--- a/biology/Botanique/Parc_de_la_Senne/Parc_de_la_Senne.xlsx
+++ b/biology/Botanique/Parc_de_la_Senne/Parc_de_la_Senne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc de la Senne est un jardin public bruxellois situé au nord du cœur de Bruxelles à cheval sur la commune de la Bruxelles et sur la commune de Schaerbeek destiné à la promenade et à l’agrément du public[1],[2]. Le parc a été inauguré le samedi 24 septembre 2016[3].
+Le parc de la Senne est un jardin public bruxellois situé au nord du cœur de Bruxelles à cheval sur la commune de la Bruxelles et sur la commune de Schaerbeek destiné à la promenade et à l’agrément du public,. Le parc a été inauguré le samedi 24 septembre 2016.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est composé de quatre sections qui serpentent au milieu des pâtés de maisons. 
 La 1re section, qui va de l'avenue de l'Héliport (côté place Gaucheret) à la rue Masui (entre le 109 et le 111 de la rue), a été réalisée d'avril 2015 à août 2016. 
@@ -521,7 +535,7 @@
 Le 4e segment va de la rue Masui Prolongée jusqu'au canal. 
 Un pont-passerelle, utilisant les piles de l'ancien pont tournant détruit, permettra de traverser le canal.
 Son trajet emprunte une partie de la Senne voûtée. C'est pourquoi le parc est délimité par de nombreux murs qui sont l'arrière d'anciennes entreprises qui bordaient la Senne. 
-Le parc ouvre à 8h00 et ferme entre 18h00 et 21h00 suivant la saison. Il est nettoyé tous les matins dès 7h30[1]. 
+Le parc ouvre à 8h00 et ferme entre 18h00 et 21h00 suivant la saison. Il est nettoyé tous les matins dès 7h30. 
 Il est prévu de prolonger cette promenade jusqu'au square du 21 Juillet à Laeken.
 </t>
         </is>
